--- a/Run 3/MAPE_Model_Errors_2016-2023.xlsx
+++ b/Run 3/MAPE_Model_Errors_2016-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alpersaricioglu/Library/Mobile Documents/com~apple~CloudDocs/PhD Thesis/1 Tez Önerisi/1 Çalışmalar/Time series runs 26.3.24/New DNN forecast input (9.4.24)/Run 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABD5CC1-6494-304E-966B-C0CC1F8D0126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF601E2-BFB2-9145-AC0E-380DCB7DA945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="30000" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demand" sheetId="3" r:id="rId1"/>
@@ -2467,7 +2467,7 @@
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
